--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_10_6_matched_error_tables_first.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_10_6_matched_error_tables_first.xlsx
@@ -441,22 +441,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.3256348722119822</v>
+        <v>0.1275097979829652</v>
       </c>
       <c r="C2">
-        <v>1.127006775464559</v>
+        <v>1.514122279856028</v>
       </c>
       <c r="D2">
-        <v>5.339940301703322</v>
+        <v>9.324398268036724</v>
       </c>
       <c r="E2">
-        <v>2.310831084632393</v>
+        <v>3.05358776982695</v>
       </c>
       <c r="F2">
-        <v>2.344269042428353</v>
+        <v>3.122720650086514</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,22 +464,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.4577705830857514</v>
+        <v>0.029890368269258</v>
       </c>
       <c r="C3">
-        <v>1.116759832493788</v>
+        <v>1.46966240847316</v>
       </c>
       <c r="D3">
-        <v>5.723906401791041</v>
+        <v>8.914287279745698</v>
       </c>
       <c r="E3">
-        <v>2.392468683554926</v>
+        <v>2.985680371330075</v>
       </c>
       <c r="F3">
-        <v>2.409269925462761</v>
+        <v>3.059258658222928</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,22 +487,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.4552084138074176</v>
+        <v>-0.4518501121711197</v>
       </c>
       <c r="C4">
-        <v>0.9492328162871494</v>
+        <v>0.9211732945268647</v>
       </c>
       <c r="D4">
-        <v>4.12741325198283</v>
+        <v>3.928571433859458</v>
       </c>
       <c r="E4">
-        <v>2.031603615861822</v>
+        <v>1.982062419264201</v>
       </c>
       <c r="F4">
-        <v>2.034204355620447</v>
+        <v>1.980006089833911</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,22 +510,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.1282288426560726</v>
+        <v>-0.02887321458375646</v>
       </c>
       <c r="C5">
-        <v>0.5784970142485872</v>
+        <v>0.6406565445890792</v>
       </c>
       <c r="D5">
-        <v>0.8294947697987313</v>
+        <v>0.9487813136001403</v>
       </c>
       <c r="E5">
-        <v>0.9107660346097296</v>
+        <v>0.9740540609227705</v>
       </c>
       <c r="F5">
-        <v>0.9278355079486843</v>
+        <v>1.000305658023116</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,22 +533,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.08535671974759855</v>
+        <v>-0.01274653667201224</v>
       </c>
       <c r="C6">
-        <v>0.6277407023625218</v>
+        <v>0.6862274353315703</v>
       </c>
       <c r="D6">
-        <v>0.8906322645007256</v>
+        <v>0.9980463954621034</v>
       </c>
       <c r="E6">
-        <v>0.943733153227503</v>
+        <v>0.9990227201931412</v>
       </c>
       <c r="F6">
-        <v>0.968790818920974</v>
+        <v>1.027902220766659</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02394000391355737</v>
+        <v>-0.1249833021668538</v>
       </c>
       <c r="C7">
-        <v>0.4466675350440804</v>
+        <v>0.5228445079367579</v>
       </c>
       <c r="D7">
-        <v>0.3525740303456888</v>
+        <v>0.5102717666494121</v>
       </c>
       <c r="E7">
-        <v>0.5937794458767404</v>
+        <v>0.7143330922261771</v>
       </c>
       <c r="F7">
-        <v>0.6127541380212742</v>
+        <v>0.7249597400067718</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.06167171368281541</v>
+        <v>-0.0390809901440984</v>
       </c>
       <c r="C8">
-        <v>0.4886358825104201</v>
+        <v>0.4768323812870599</v>
       </c>
       <c r="D8">
-        <v>0.4303758313995061</v>
+        <v>0.4090940898259321</v>
       </c>
       <c r="E8">
-        <v>0.6560303585959313</v>
+        <v>0.6396046355569447</v>
       </c>
       <c r="F8">
-        <v>0.6760487338183736</v>
+        <v>0.6593465581702652</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
